--- a/Op_Add.xlsx
+++ b/Op_Add.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\StoreMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\study\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62373669-1C76-4039-93F6-CA65D332A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DCBAC8-293B-4844-A632-1885C5E7EDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52EE6CC0-C01B-41F9-AA3E-52F9FB77E7CB}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBFF48E-125E-4053-8D90-AF63EC578312}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,6 +1012,352 @@
         <v>78</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="str" cm="1">
+        <f t="array" ref="A45:A87">LOWER(A2:A44)</f>
+        <v>tt</v>
+      </c>
+      <c r="B45" t="str" cm="1">
+        <f t="array" ref="B45:B87">LOWER(B2:B44)</f>
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <v>kp</v>
+      </c>
+      <c r="B46" t="str">
+        <v>khu phố</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <v>p.</v>
+      </c>
+      <c r="B47" t="str">
+        <v>phường</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <v>k1</v>
+      </c>
+      <c r="B48" t="str">
+        <v>khu phố 1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <v>k2</v>
+      </c>
+      <c r="B49" t="str">
+        <v>khu phố 2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <v>k3</v>
+      </c>
+      <c r="B50" t="str">
+        <v>khu phố 3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <v>k4</v>
+      </c>
+      <c r="B51" t="str">
+        <v>khu phố 4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <v>k5</v>
+      </c>
+      <c r="B52" t="str">
+        <v>khu phố 5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <v>k6</v>
+      </c>
+      <c r="B53" t="str">
+        <v>khu phố 6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <v>k7</v>
+      </c>
+      <c r="B54" t="str">
+        <v>khu phố 7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <v>f2</v>
+      </c>
+      <c r="B55" t="str">
+        <v>phường 2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <v>f4</v>
+      </c>
+      <c r="B56" t="str">
+        <v>phường 4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <v>f5</v>
+      </c>
+      <c r="B57" t="str">
+        <v>phường 5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <v>p1</v>
+      </c>
+      <c r="B58" t="str">
+        <v>phường 1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <v>p2</v>
+      </c>
+      <c r="B59" t="str">
+        <v>phường 2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <v>p3</v>
+      </c>
+      <c r="B60" t="str">
+        <v>phường 3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <v>p4</v>
+      </c>
+      <c r="B61" t="str">
+        <v>phường 4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <v>p5</v>
+      </c>
+      <c r="B62" t="str">
+        <v>phường 5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <v>p6</v>
+      </c>
+      <c r="B63" t="str">
+        <v>phường 6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <v>p7</v>
+      </c>
+      <c r="B64" t="str">
+        <v>phường 7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <v>p8</v>
+      </c>
+      <c r="B65" t="str">
+        <v>phường 8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <v>p9</v>
+      </c>
+      <c r="B66" t="str">
+        <v>phường 9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <v>tt</v>
+      </c>
+      <c r="B67" t="str">
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <v>kp</v>
+      </c>
+      <c r="B68" t="str">
+        <v>khu phố</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <v>p khánh hậu</v>
+      </c>
+      <c r="B69" t="str">
+        <v>phường khánh hậu</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <v>p phú khương</v>
+      </c>
+      <c r="B70" t="str">
+        <v>phường phú khương</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <v>p 2</v>
+      </c>
+      <c r="B71" t="str">
+        <v>phường 2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <v>đ12</v>
+      </c>
+      <c r="B72" t="str">
+        <v>đường số 12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <v>số 8</v>
+      </c>
+      <c r="B73" t="str">
+        <v>số 8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B74" t="str">
+        <v>khu vực</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <v>ngã tư</v>
+      </c>
+      <c r="B75" t="str">
+        <v>ngã 4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <v>ngã tư</v>
+      </c>
+      <c r="B76" t="str">
+        <v>ngã 4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <v>ngã ba</v>
+      </c>
+      <c r="B77" t="str">
+        <v>ngã 3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <v>ngã ba</v>
+      </c>
+      <c r="B78" t="str">
+        <v>ngã 3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <v>ngã tư</v>
+      </c>
+      <c r="B79" t="str">
+        <v>ngã 4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <v>ngã ba</v>
+      </c>
+      <c r="B80" t="str">
+        <v>ngã 3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <v xml:space="preserve">tt. </v>
+      </c>
+      <c r="B81" t="str">
+        <v>thị trấn</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <v xml:space="preserve"> tp</v>
+      </c>
+      <c r="B82" t="str">
+        <v>thành phố</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <v>x.</v>
+      </c>
+      <c r="B83" t="str">
+        <v>xã</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <v>h.</v>
+      </c>
+      <c r="B84" t="str">
+        <v>huyện</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <v>kv</v>
+      </c>
+      <c r="B85" t="str">
+        <v>khu vực</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <v>kp</v>
+      </c>
+      <c r="B86" t="str">
+        <v xml:space="preserve">khu phố </v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <v>dhd</v>
+      </c>
+      <c r="B87" t="str">
+        <v>đức hòa đông</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
